--- a/DOM_Banner/output/dept_banner/Halil Erol_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Halil Erol_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -445,77 +450,77 @@
           <t>Halil Erol</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://openalex.org/W4220901288</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Islamic Propaganda by the French During the Occupation of Egypt (1798-1801)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-30</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>İstanbul üniversitesi sosyoloji dergisi</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Istanbul University</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.26650/sj.2022.42.1.0014</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.26650/sj.2022.42.1.0014</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +534,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Osmaniye Korkut Ata Üniversitesi; Osmaniye Korkut Ata University</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220944919</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Diagnosis of Breast Cancer by K-Mean Clustering and Otsu Thresholding Segmentation Methods</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-03-08</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Osmaniye Korkut Ata Üniversitesi Fen Bilimleri Enstitüsü dergisi</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.47495/okufbed.994481</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.47495/okufbed.994481</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +621,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311814760</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Lack of effectiveness of Bebtelovimab Monoclonal Antibody Among High-Risk Patients with SARS-Cov-2 Omicron During BA.2, BA.2.12.1 and BA.5 Subvariants Dominated Era</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-12-07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.06.22283183</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.06.22283183</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +708,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Edremit Directorate of District Agriculture and Forestry, Balıkesir, Turkey.; Department of Animal Breeding and Husbandry, Faculty of Veterinary Medicine, Ankara University, 06110 Ankara, Turkey.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285122445</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Meat production traits of Angora goats. 2. Meat quality characteristics and fatty acid composition of meat from intact and castrated kids</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Animal Production Science</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>CSIRO Publishing</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1071/an21062</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1071/an21062</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
